--- a/test/30sep2020/50 topics setp 1 coherence/50topics_step1_coherence.xlsx
+++ b/test/30sep2020/50 topics setp 1 coherence/50topics_step1_coherence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1098350515\Documents\quart\appPythonML\test\30sep2020\50 topics setp 1 coherence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AA4E02-73A5-48C2-8277-034760DE4EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF438D66-87B4-4681-81D5-F93F2EAD605A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{36FD34F3-5A52-4811-9DAC-4681F5C5E77F}"/>
   </bookViews>

--- a/test/30sep2020/50 topics setp 1 coherence/50topics_step1_coherence.xlsx
+++ b/test/30sep2020/50 topics setp 1 coherence/50topics_step1_coherence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1098350515\Documents\quart\appPythonML\test\30sep2020\50 topics setp 1 coherence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30sep2020\50 topics setp 1 coherence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF438D66-87B4-4681-81D5-F93F2EAD605A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17582569-F6C3-4E84-9C93-E138C83CF8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{36FD34F3-5A52-4811-9DAC-4681F5C5E77F}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B06B54D-4D1F-40BD-85A9-12FB24E96533}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
